--- a/TestingDataset.xlsx
+++ b/TestingDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amsyar\Documents\cs230\part5\FYPSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BBFB0E-5B13-40C9-9A34-1797EF06668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6710C6A1-61E5-4B40-853A-8A72110890B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="4500" windowWidth="21600" windowHeight="11385" xr2:uid="{E46EBA8B-9056-4F30-A399-5E5EAC681E0A}"/>
+    <workbookView xWindow="14880" yWindow="3090" windowWidth="7965" windowHeight="11385" xr2:uid="{E46EBA8B-9056-4F30-A399-5E5EAC681E0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
-    <t>VarName1</t>
-  </si>
-  <si>
-    <t>VarName2</t>
-  </si>
-  <si>
-    <t>VarName3</t>
-  </si>
-  <si>
-    <t>VarName4</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -57,6 +45,18 @@
   </si>
   <si>
     <t>Psoriasis</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Correlation</t>
+  </si>
+  <si>
+    <t>Energy</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,19 +423,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -469,7 +469,7 @@
         <v>610</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>1054</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -520,7 +520,7 @@
         <v>1092</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -537,7 +537,7 @@
         <v>1096</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -554,7 +554,7 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>535</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,7 +588,7 @@
         <v>1516</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,7 +605,7 @@
         <v>2167</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>2615</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>200</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>523</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>510</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>455</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>1515</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
         <v>594</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>303</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
